--- a/SALARY STATEMENT - DECEMBER - 2020.xlsx
+++ b/SALARY STATEMENT - DECEMBER - 2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1125" windowWidth="19470" windowHeight="7935"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="19965" windowHeight="4860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
